--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H2">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I2">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J2">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>208.3139260224819</v>
+        <v>35.36889630004133</v>
       </c>
       <c r="R2">
-        <v>1874.825334202337</v>
+        <v>318.320066700372</v>
       </c>
       <c r="S2">
-        <v>0.09268678613582766</v>
+        <v>0.01521448706496096</v>
       </c>
       <c r="T2">
-        <v>0.09268678613582765</v>
+        <v>0.01521448706496096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H3">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I3">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J3">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>128.9696411356406</v>
+        <v>20.35088385318389</v>
       </c>
       <c r="R3">
-        <v>1160.726770220765</v>
+        <v>183.157954678655</v>
       </c>
       <c r="S3">
-        <v>0.05738349698552304</v>
+        <v>0.008754252790874543</v>
       </c>
       <c r="T3">
-        <v>0.05738349698552304</v>
+        <v>0.008754252790874545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H4">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I4">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J4">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>37.44104963743833</v>
+        <v>8.864205808996889</v>
       </c>
       <c r="R4">
-        <v>336.969446736945</v>
+        <v>79.777852280972</v>
       </c>
       <c r="S4">
-        <v>0.01665894655584203</v>
+        <v>0.003813077554867816</v>
       </c>
       <c r="T4">
-        <v>0.01665894655584202</v>
+        <v>0.003813077554867816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H5">
         <v>17.362368</v>
       </c>
       <c r="I5">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J5">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>595.1179908556159</v>
+        <v>640.3398042708479</v>
       </c>
       <c r="R5">
-        <v>5356.061917700543</v>
+        <v>5763.058238437631</v>
       </c>
       <c r="S5">
-        <v>0.264790621526018</v>
+        <v>0.2754522387866274</v>
       </c>
       <c r="T5">
-        <v>0.264790621526018</v>
+        <v>0.2754522387866275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H6">
         <v>17.362368</v>
       </c>
       <c r="I6">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J6">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>368.4446603235199</v>
+        <v>368.44466032352</v>
       </c>
       <c r="R6">
         <v>3316.00194291168</v>
       </c>
       <c r="S6">
-        <v>0.1639350382681962</v>
+        <v>0.1584922659472294</v>
       </c>
       <c r="T6">
-        <v>0.1639350382681962</v>
+        <v>0.1584922659472295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H7">
         <v>17.362368</v>
       </c>
       <c r="I7">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J7">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>106.96280686176</v>
+        <v>160.482921621248</v>
       </c>
       <c r="R7">
-        <v>962.6652617558398</v>
+        <v>1444.346294591232</v>
       </c>
       <c r="S7">
-        <v>0.04759181967994706</v>
+        <v>0.06903425298998565</v>
       </c>
       <c r="T7">
-        <v>0.04759181967994704</v>
+        <v>0.06903425298998567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H8">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I8">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J8">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>445.982636441689</v>
+        <v>597.386424099212</v>
       </c>
       <c r="R8">
-        <v>4013.843727975202</v>
+        <v>5376.477816892908</v>
       </c>
       <c r="S8">
-        <v>0.1984346319683986</v>
+        <v>0.256975166687068</v>
       </c>
       <c r="T8">
-        <v>0.1984346319683986</v>
+        <v>0.256975166687068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H9">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I9">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J9">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>276.1131801068544</v>
+        <v>343.7297457398384</v>
       </c>
       <c r="R9">
-        <v>2485.01862096169</v>
+        <v>3093.567711658545</v>
       </c>
       <c r="S9">
-        <v>0.1228532521204814</v>
+        <v>0.1478607566952825</v>
       </c>
       <c r="T9">
-        <v>0.1228532521204814</v>
+        <v>0.1478607566952826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H10">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I10">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J10">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>80.15814567599666</v>
+        <v>149.7178810951453</v>
       </c>
       <c r="R10">
-        <v>721.4233110839699</v>
+        <v>1347.460929856308</v>
       </c>
       <c r="S10">
-        <v>0.03566540675976602</v>
+        <v>0.06440350148310366</v>
       </c>
       <c r="T10">
-        <v>0.035665406759766</v>
+        <v>0.06440350148310367</v>
       </c>
     </row>
   </sheetData>
